--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetIce HockeyDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetIce HockeyDataErrorMarketsList.xlsx
@@ -12,33 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>This market works for Client  GameID = 3746572  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3739920  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3717151  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3739994  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738385  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3741848  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738394  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739845  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739557  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739559  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3741879  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739321  MarketName = Correct Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3716345  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716401  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716431  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716481  MarketName = Correct Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3707726  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3729400  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3428784  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3428787  MarketName = Correct Score</t>
@@ -86,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -145,6 +154,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetIce HockeyDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetIce HockeyDataErrorMarketsList.xlsx
@@ -12,45 +12,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>This market works for Client  GameID = 3739920  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739994  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741848  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741879  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739321  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716345  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716401  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716431  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716481  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3707726  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3729400  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3428784  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3428787  MarketName = Correct Score</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>This market works for Client  GameID = 3749832  MarketName = Correct Score  MarketID = 223467159  SelectorError = 0.8522479172450067</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749833  MarketName = Correct Score  MarketID = 223354307  SelectorError = 0.8070937105278456</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750640  MarketName = Correct Score  MarketID = 223467202  SelectorError = 0.820317307460297</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750641  MarketName = Correct Score  MarketID = 223467076  SelectorError = 0.8413743744074228</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751595  MarketName = Correct Score  MarketID = 223488721  SelectorError = 0.7272156904025665</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739920  MarketName = Correct Score  MarketID = 223296927  SelectorError = 0.8563090319403038</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748080  MarketName = Correct Score  MarketID = 223476676  SelectorError = 0.8400833823055892</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751378  MarketName = Correct Score  MarketID = 223470264  SelectorError = 0.8558291062240178</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750083  MarketName = Correct Score  MarketID = 223475033  SelectorError = 0.8614862827095494</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750081  MarketName = Correct Score  MarketID = 223467187  SelectorError = 0.8441603348302512</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753177  MarketName = Correct Score  MarketID = 223467246  SelectorError = 0.9001383419289528</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753178  MarketName = Correct Score  MarketID = 223467214  SelectorError = 0.8585619633189323</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753184  MarketName = Correct Score  MarketID = 223467230  SelectorError = 0.862329110569898</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739320  MarketName = Correct Score  MarketID = 223364957  SelectorError = 0.8302135764189836</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739321  MarketName = Correct Score  MarketID = 223030724  SelectorError = 0.7882693155890462</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739322  MarketName = Correct Score  MarketID = 223416539  SelectorError = 0.7884337746921968</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716288  MarketName = Correct Score  MarketID = 223525204  SelectorError = 0.5651008717074985</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716291  MarketName = Correct Score  MarketID = 223525175  SelectorError = 0.4828005160183636</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716345  MarketName = Correct Score  MarketID = 223307077  SelectorError = 0.9187262966351337</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716401  MarketName = Correct Score  MarketID = 223307105  SelectorError = 0.9187262966351337</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716431  MarketName = Correct Score  MarketID = 223307124  SelectorError = 0.8990477389495696</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3716481  MarketName = Correct Score  MarketID = 222976705  SelectorError = 0.879309107287518</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3707726  MarketName = Correct Score  MarketID = 222779684  SelectorError = 0.9848931293732303</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3729400  MarketName = Correct Score  MarketID = 223295023  SelectorError = 0.9034845257411349</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3428784  MarketName = Correct Score  MarketID = 223296892  SelectorError = 0.838081315830425</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3428787  MarketName = Correct Score  MarketID = 222324684  SelectorError = 0.8932778910184889</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751965  MarketName = Correct Score  MarketID = 223490535  SelectorError = 0.6742291310375164</t>
   </si>
 </sst>
 </file>
@@ -95,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,6 +211,76 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetIce HockeyDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetIce HockeyDataErrorMarketsList.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="588" yWindow="564" windowWidth="15996" windowHeight="5244"/>
   </bookViews>
   <sheets>
-    <sheet name="ErrorMarkets" r:id="rId3" sheetId="1"/>
+    <sheet name="ErrorMarkets" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
+    <t>This market works for Client  GameID = 3751962  MarketName = Correct Score  MarketID = 223530080  SelectorError = 0.29772993216931043</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3749832  MarketName = Correct Score  MarketID = 223467159  SelectorError = 0.8522479172450067</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3749833  MarketName = Correct Score  MarketID = 223354307  SelectorError = 0.8070937105278456</t>
+    <t>This market works for Client  GameID = 3749833  MarketName = Correct Score  MarketID = 223354307  SelectorError = 0.8130704125304806</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3750640  MarketName = Correct Score  MarketID = 223467202  SelectorError = 0.820317307460297</t>
@@ -32,9 +37,6 @@
     <t>This market works for Client  GameID = 3739920  MarketName = Correct Score  MarketID = 223296927  SelectorError = 0.8563090319403038</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3748080  MarketName = Correct Score  MarketID = 223476676  SelectorError = 0.8400833823055892</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3751378  MarketName = Correct Score  MarketID = 223470264  SelectorError = 0.8558291062240178</t>
   </si>
   <si>
@@ -44,22 +46,22 @@
     <t>This market works for Client  GameID = 3750081  MarketName = Correct Score  MarketID = 223467187  SelectorError = 0.8441603348302512</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3753177  MarketName = Correct Score  MarketID = 223467246  SelectorError = 0.9001383419289528</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753178  MarketName = Correct Score  MarketID = 223467214  SelectorError = 0.8585619633189323</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753184  MarketName = Correct Score  MarketID = 223467230  SelectorError = 0.862329110569898</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739320  MarketName = Correct Score  MarketID = 223364957  SelectorError = 0.8302135764189836</t>
+    <t>This market works for Client  GameID = 3753177  MarketName = Correct Score  MarketID = 223467246  SelectorError = 0.9173650289449871</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753178  MarketName = Correct Score  MarketID = 223467214  SelectorError = 0.8696303784552234</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753184  MarketName = Correct Score  MarketID = 223467230  SelectorError = 0.8640774568265964</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739320  MarketName = Correct Score  MarketID = 223364957  SelectorError = 0.8281275686868073</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3739321  MarketName = Correct Score  MarketID = 223030724  SelectorError = 0.7882693155890462</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739322  MarketName = Correct Score  MarketID = 223416539  SelectorError = 0.7884337746921968</t>
+    <t>This market works for Client  GameID = 3739322  MarketName = Correct Score  MarketID = 223416539  SelectorError = 0.7895392480720175</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3716288  MarketName = Correct Score  MarketID = 223525204  SelectorError = 0.5651008717074985</t>
@@ -92,17 +94,16 @@
     <t>This market works for Client  GameID = 3428787  MarketName = Correct Score  MarketID = 222324684  SelectorError = 0.8932778910184889</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3751965  MarketName = Correct Score  MarketID = 223490535  SelectorError = 0.6742291310375164</t>
+    <t>This market works for Client  GameID = 3751965  MarketName = Correct Score  MarketID = 223490535  SelectorError = 0.6924015219817988</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +115,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -132,156 +133,444 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="78.125" customWidth="true"/>
+    <col min="1" max="1" width="128.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetIce HockeyDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetIce HockeyDataErrorMarketsList.xlsx
@@ -12,63 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>This market works for Client  GameID = 3751592  MarketName = Correct Score  MarketID = 223716965  SelectorError = 0.04342082433877378</t>
+    <t>1This market works for Client  GameID = 3760017  MarketName = Correct Score  MarketID = 224335462  SelectorError = 0.8597171559946694</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3751595  MarketName = Correct Score  MarketID = 223488721  SelectorError = 0.7910355902576817</t>
+    <t>2This market works for Client  GameID = 3740057  MarketName = Correct Score  MarketID = 223706558  SelectorError = 0.88207537340005</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3740057  MarketName = Correct Score  MarketID = 223706558  SelectorError = 0.8765921277376679</t>
+    <t>3This market works for Client  GameID = 3764323  MarketName = Correct Score  MarketID = 224292003  SelectorError = 0.659226169976681</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3751378  MarketName = Correct Score  MarketID = 223470264  SelectorError = 0.8440079509715279</t>
+    <t>4This market works for Client  GameID = 3764327  MarketName = Correct Score  MarketID = 224508151  SelectorError = 0.23614480301951496</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3751379  MarketName = Correct Score  MarketID = 223602425  SelectorError = 0.8471824264443872</t>
+    <t>5This market works for Client  GameID = 3739556  MarketName = Correct Score  MarketID = 224211096  SelectorError = 0.9045255025149707</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3751470  MarketName = Correct Score  MarketID = 223693874  SelectorError = 0.27203299911006096</t>
+    <t>6This market works for Client  GameID = 3770751  MarketName = Correct Score  MarketID = 224347206  SelectorError = 0.6062247747786502</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3751473  MarketName = Correct Score  MarketID = 223573269  SelectorError = 0.8205694367131708</t>
+    <t>7This market works for Client  GameID = 3716327  MarketName = Correct Score  MarketID = 224430754  SelectorError = 0.8661011852350415</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739321  MarketName = Correct Score  MarketID = 223030724  SelectorError = 0.8296294145565939</t>
+    <t>8This market works for Client  GameID = 3716345  MarketName = Correct Score  MarketID = 223307077  SelectorError = 0.8890281571873845</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739322  MarketName = Correct Score  MarketID = 223416539  SelectorError = 0.8680175646779196</t>
+    <t>9This market works for Client  GameID = 3716359  MarketName = Correct Score  MarketID = 224193647  SelectorError = 0.8599188666356907</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3739323  MarketName = Correct Score  MarketID = 223553144  SelectorError = 0.8728851684714638</t>
+    <t>10This market works for Client  GameID = 3716401  MarketName = Correct Score  MarketID = 223307105  SelectorError = 0.9005637667537909</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3716345  MarketName = Correct Score  MarketID = 223307077  SelectorError = 0.9187262966351337</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716401  MarketName = Correct Score  MarketID = 223307105  SelectorError = 0.9187262966351337</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716431  MarketName = Correct Score  MarketID = 223307124  SelectorError = 0.8990477389495696</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3716481  MarketName = Correct Score  MarketID = 222976705  SelectorError = 0.879309107287518</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3707726  MarketName = Correct Score  MarketID = 222779684  SelectorError = 0.9848931293732303</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3729400  MarketName = Correct Score  MarketID = 223295023  SelectorError = 0.9034845257411349</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3428784  MarketName = Correct Score  MarketID = 223296892  SelectorError = 0.838081315830425</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3428787  MarketName = Correct Score  MarketID = 222324684  SelectorError = 0.8932778910184889</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751973  MarketName = Correct Score  MarketID = 223591410  SelectorError = 0.941951586089629</t>
+    <t>11This market works for Client  GameID = 3716431  MarketName = Correct Score  MarketID = 223307124  SelectorError = 0.8625859190307371</t>
   </si>
 </sst>
 </file>
@@ -113,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,46 +153,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
